--- a/SlowInstructionsSheet2.xlsx
+++ b/SlowInstructionsSheet2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/InfinityThesisTest5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17B2004-1C1E-644C-BED1-2023C4DA50F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB985A1-6204-084E-B16D-11F953C85CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,16 +94,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>If the statement is true, you will press the “E” key on your keyboard with your left pointer finger; if the statement is false, you will press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
-  </si>
-  <si>
-    <t>We urge you to try your best and take your time. Each statement will appear on your screen and you will have as much time as you need to decide if it is true or false. Press E to continue</t>
-  </si>
-  <si>
     <t>SlowInstructions</t>
   </si>
   <si>
-    <t>You will be shown a total of 160 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 160 statements.  Press E to Continue</t>
+    <t>You will be shown a total of 80 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 80 statements.  Press F to Continue</t>
+  </si>
+  <si>
+    <t>We urge you to try your best and take your time. Each statement will appear on your screen and you will have as much time as you need to decide if it is true or false. Press F to continue</t>
+  </si>
+  <si>
+    <t>If the statement is true, you will press the “F” key on your keyboard with your left pointer finger; if the statement is false, you will press the “J” key on your keyboard with your right pointer finger. Press F to continue</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -520,22 +520,22 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -551,6 +551,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -664,12 +670,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -680,6 +680,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -695,21 +710,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
